--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England EFL League Two_20242025.xlsx
@@ -109554,10 +109554,10 @@
         <v>4</v>
       </c>
       <c r="BB522">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC522">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD522">
         <v>1.8</v>
@@ -110584,10 +110584,10 @@
         <v>1</v>
       </c>
       <c r="BB527">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC527">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD527">
         <v>1.44</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England EFL League Two_20242025.xlsx
@@ -112862,31 +112862,31 @@
         <v>2.57</v>
       </c>
       <c r="AU538">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV538">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW538">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AX538">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AY538">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="AZ538">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA538">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB538">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC538">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD538">
         <v>1.79</v>
@@ -113274,31 +113274,31 @@
         <v>2.31</v>
       </c>
       <c r="AU540">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV540">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW540">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX540">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY540">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="AZ540">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA540">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB540">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC540">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD540">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England EFL League Two_20242025.xlsx
@@ -114752,10 +114752,10 @@
         <v>4</v>
       </c>
       <c r="BB547">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC547">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD547">
         <v>2.48</v>
@@ -115573,13 +115573,13 @@
         <v>13</v>
       </c>
       <c r="BA551">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB551">
         <v>7</v>
       </c>
       <c r="BC551">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD551">
         <v>2.9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3398" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3404" uniqueCount="580">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -2115,7 +2115,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP556"/>
+  <dimension ref="A1:BP557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AQ3">
         <v>1.26</v>
@@ -4515,7 +4515,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ12">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -10283,7 +10283,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ40">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AR40">
         <v>0</v>
@@ -11722,7 +11722,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AQ47">
         <v>1.17</v>
@@ -14606,7 +14606,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AQ61">
         <v>0.96</v>
@@ -16463,7 +16463,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ70">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AR70">
         <v>1.03</v>
@@ -20583,7 +20583,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ90">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AR90">
         <v>1.28</v>
@@ -23467,7 +23467,7 @@
         <v>1</v>
       </c>
       <c r="AQ104">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AR104">
         <v>1.32</v>
@@ -26351,7 +26351,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ118">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AR118">
         <v>1.26</v>
@@ -27172,7 +27172,7 @@
         <v>0.8</v>
       </c>
       <c r="AP122">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AQ122">
         <v>0.83</v>
@@ -32737,7 +32737,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ149">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AR149">
         <v>1.45</v>
@@ -32940,7 +32940,7 @@
         <v>0.67</v>
       </c>
       <c r="AP150">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AQ150">
         <v>0.61</v>
@@ -37472,7 +37472,7 @@
         <v>1.71</v>
       </c>
       <c r="AP172">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AQ172">
         <v>1.52</v>
@@ -38299,7 +38299,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ176">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AR176">
         <v>1.32</v>
@@ -39329,7 +39329,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ181">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AR181">
         <v>1.19</v>
@@ -40562,7 +40562,7 @@
         <v>0.86</v>
       </c>
       <c r="AP187">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AQ187">
         <v>1.04</v>
@@ -41798,7 +41798,7 @@
         <v>1.57</v>
       </c>
       <c r="AP193">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AQ193">
         <v>1.58</v>
@@ -43655,7 +43655,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ202">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AR202">
         <v>1.49</v>
@@ -44682,7 +44682,7 @@
         <v>0.78</v>
       </c>
       <c r="AP207">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AQ207">
         <v>0.61</v>
@@ -47775,7 +47775,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ222">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AR222">
         <v>1.41</v>
@@ -49008,7 +49008,7 @@
         <v>1.89</v>
       </c>
       <c r="AP228">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AQ228">
         <v>1.78</v>
@@ -53131,7 +53131,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ248">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AR248">
         <v>1.35</v>
@@ -54570,7 +54570,7 @@
         <v>0.73</v>
       </c>
       <c r="AP255">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AQ255">
         <v>1.17</v>
@@ -56427,7 +56427,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ264">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AR264">
         <v>1.31</v>
@@ -57042,7 +57042,7 @@
         <v>1.1</v>
       </c>
       <c r="AP267">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AQ267">
         <v>1</v>
@@ -62813,7 +62813,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ295">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AR295">
         <v>1.29</v>
@@ -63222,7 +63222,7 @@
         <v>0.67</v>
       </c>
       <c r="AP297">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AQ297">
         <v>0.78</v>
@@ -69405,7 +69405,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ327">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AR327">
         <v>1.28</v>
@@ -71668,7 +71668,7 @@
         <v>1.08</v>
       </c>
       <c r="AP338">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AQ338">
         <v>1</v>
@@ -75376,7 +75376,7 @@
         <v>1.47</v>
       </c>
       <c r="AP356">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AQ356">
         <v>1.26</v>
@@ -75997,7 +75997,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ359">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AR359">
         <v>1.32</v>
@@ -76200,7 +76200,7 @@
         <v>1.36</v>
       </c>
       <c r="AP360">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AQ360">
         <v>1.48</v>
@@ -83619,7 +83619,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ396">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AR396">
         <v>1.43</v>
@@ -84234,7 +84234,7 @@
         <v>1.5</v>
       </c>
       <c r="AP399">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AQ399">
         <v>1.39</v>
@@ -87324,10 +87324,10 @@
         <v>1.59</v>
       </c>
       <c r="AP414">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AQ414">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AR414">
         <v>1.48</v>
@@ -89796,7 +89796,7 @@
         <v>0.88</v>
       </c>
       <c r="AP426">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AQ426">
         <v>1.04</v>
@@ -90417,7 +90417,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ429">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AR429">
         <v>1.41</v>
@@ -95152,7 +95152,7 @@
         <v>0.72</v>
       </c>
       <c r="AP452">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AQ452">
         <v>0.96</v>
@@ -97627,7 +97627,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ464">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AR464">
         <v>1.3</v>
@@ -101747,7 +101747,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ484">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AR484">
         <v>1.52</v>
@@ -103186,7 +103186,7 @@
         <v>0.75</v>
       </c>
       <c r="AP491">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AQ491">
         <v>0.83</v>
@@ -106279,7 +106279,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ506">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AR506">
         <v>1.58</v>
@@ -108336,7 +108336,7 @@
         <v>1.24</v>
       </c>
       <c r="AP516">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AQ516">
         <v>1.25</v>
@@ -111220,7 +111220,7 @@
         <v>1.55</v>
       </c>
       <c r="AP530">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AQ530">
         <v>1.61</v>
@@ -111635,7 +111635,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ532">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AR532">
         <v>1.28</v>
@@ -116164,10 +116164,10 @@
         <v>1.59</v>
       </c>
       <c r="AP554">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ554">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AR554">
         <v>1.53</v>
@@ -116655,6 +116655,212 @@
       </c>
       <c r="BP556">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="557" spans="1:68">
+      <c r="A557" s="1">
+        <v>556</v>
+      </c>
+      <c r="B557">
+        <v>7897229</v>
+      </c>
+      <c r="C557" t="s">
+        <v>68</v>
+      </c>
+      <c r="D557" t="s">
+        <v>69</v>
+      </c>
+      <c r="E557" s="2">
+        <v>45794.35416666666</v>
+      </c>
+      <c r="F557">
+        <v>0</v>
+      </c>
+      <c r="G557" t="s">
+        <v>71</v>
+      </c>
+      <c r="H557" t="s">
+        <v>93</v>
+      </c>
+      <c r="I557">
+        <v>1</v>
+      </c>
+      <c r="J557">
+        <v>0</v>
+      </c>
+      <c r="K557">
+        <v>1</v>
+      </c>
+      <c r="L557">
+        <v>1</v>
+      </c>
+      <c r="M557">
+        <v>0</v>
+      </c>
+      <c r="N557">
+        <v>1</v>
+      </c>
+      <c r="O557" t="s">
+        <v>118</v>
+      </c>
+      <c r="P557" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q557">
+        <v>2.88</v>
+      </c>
+      <c r="R557">
+        <v>2.05</v>
+      </c>
+      <c r="S557">
+        <v>4</v>
+      </c>
+      <c r="T557">
+        <v>1.44</v>
+      </c>
+      <c r="U557">
+        <v>2.63</v>
+      </c>
+      <c r="V557">
+        <v>3.25</v>
+      </c>
+      <c r="W557">
+        <v>1.33</v>
+      </c>
+      <c r="X557">
+        <v>10</v>
+      </c>
+      <c r="Y557">
+        <v>1.06</v>
+      </c>
+      <c r="Z557">
+        <v>2.65</v>
+      </c>
+      <c r="AA557">
+        <v>3.1</v>
+      </c>
+      <c r="AB557">
+        <v>2.65</v>
+      </c>
+      <c r="AC557">
+        <v>1.07</v>
+      </c>
+      <c r="AD557">
+        <v>8</v>
+      </c>
+      <c r="AE557">
+        <v>1.4</v>
+      </c>
+      <c r="AF557">
+        <v>2.9</v>
+      </c>
+      <c r="AG557">
+        <v>2.25</v>
+      </c>
+      <c r="AH557">
+        <v>1.57</v>
+      </c>
+      <c r="AI557">
+        <v>1.83</v>
+      </c>
+      <c r="AJ557">
+        <v>1.83</v>
+      </c>
+      <c r="AK557">
+        <v>1.33</v>
+      </c>
+      <c r="AL557">
+        <v>1.28</v>
+      </c>
+      <c r="AM557">
+        <v>1.62</v>
+      </c>
+      <c r="AN557">
+        <v>1.62</v>
+      </c>
+      <c r="AO557">
+        <v>1.53</v>
+      </c>
+      <c r="AP557">
+        <v>1.65</v>
+      </c>
+      <c r="AQ557">
+        <v>1.5</v>
+      </c>
+      <c r="AR557">
+        <v>1.37</v>
+      </c>
+      <c r="AS557">
+        <v>1.54</v>
+      </c>
+      <c r="AT557">
+        <v>2.91</v>
+      </c>
+      <c r="AU557">
+        <v>5</v>
+      </c>
+      <c r="AV557">
+        <v>2</v>
+      </c>
+      <c r="AW557">
+        <v>4</v>
+      </c>
+      <c r="AX557">
+        <v>13</v>
+      </c>
+      <c r="AY557">
+        <v>12</v>
+      </c>
+      <c r="AZ557">
+        <v>18</v>
+      </c>
+      <c r="BA557">
+        <v>2</v>
+      </c>
+      <c r="BB557">
+        <v>1</v>
+      </c>
+      <c r="BC557">
+        <v>3</v>
+      </c>
+      <c r="BD557">
+        <v>1.74</v>
+      </c>
+      <c r="BE557">
+        <v>6.5</v>
+      </c>
+      <c r="BF557">
+        <v>2.3</v>
+      </c>
+      <c r="BG557">
+        <v>1.26</v>
+      </c>
+      <c r="BH557">
+        <v>3.32</v>
+      </c>
+      <c r="BI557">
+        <v>1.49</v>
+      </c>
+      <c r="BJ557">
+        <v>2.44</v>
+      </c>
+      <c r="BK557">
+        <v>1.82</v>
+      </c>
+      <c r="BL557">
+        <v>1.93</v>
+      </c>
+      <c r="BM557">
+        <v>2.29</v>
+      </c>
+      <c r="BN557">
+        <v>1.58</v>
+      </c>
+      <c r="BO557">
+        <v>2.9</v>
+      </c>
+      <c r="BP557">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>
